--- a/配置表/ShopTreasure.xlsx
+++ b/配置表/ShopTreasure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKuaishou\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKSGit\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC48734-68BC-49D6-AF74-1932EF5F624D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D5AA6C-E23A-4258-9153-420CC0EEE498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GameItem" sheetId="1" r:id="rId1"/>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -494,10 +494,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>509</v>
+        <v>207</v>
       </c>
       <c r="D3" s="3">
-        <v>168</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -508,10 +508,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>512</v>
+        <v>216</v>
       </c>
       <c r="D4" s="3">
-        <v>168</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D5" s="3">
-        <v>168</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>223</v>
+        <v>510</v>
       </c>
       <c r="D6" s="3">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -550,164 +550,94 @@
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>222</v>
+        <v>602</v>
       </c>
       <c r="D7" s="3">
-        <v>58</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="D8" s="3">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>511</v>
+        <v>285</v>
       </c>
       <c r="D9" s="3">
-        <v>288</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="B10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>518</v>
+        <v>277</v>
       </c>
       <c r="D10" s="3">
-        <v>288</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>221</v>
+        <v>501</v>
       </c>
       <c r="D11" s="3">
-        <v>288</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="D12" s="3">
-        <v>288</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>507</v>
+        <v>602</v>
       </c>
       <c r="D13" s="3">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>204</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>502</v>
-      </c>
-      <c r="D14" s="3">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>205</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>206</v>
-      </c>
-      <c r="D15" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>206</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>204</v>
-      </c>
-      <c r="D16" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>207</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>232</v>
-      </c>
-      <c r="D17" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>208</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>243</v>
-      </c>
-      <c r="D18" s="3">
-        <v>88</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
